--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data17.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data17.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2417123624601007</v>
+        <v>0.2417527579206942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3443347712099356</v>
+        <v>0.34465095973501647</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3507731922781583</v>
+        <v>0.3508660626158076</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3318400247934683</v>
+        <v>0.3317506776014258</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
